--- a/Formation/BackTestResults.xlsx
+++ b/Formation/BackTestResults.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\Formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{451BA0A4-CE3E-45C8-BE30-26CA54A40717}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6951C2D-A93C-4343-8830-6F514D678C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{15A496E9-03BB-4CBD-B016-44788239794B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{15A496E9-03BB-4CBD-B016-44788239794B}"/>
   </bookViews>
   <sheets>
     <sheet name="ATR Stop" sheetId="1" r:id="rId1"/>
     <sheet name="BB Stop" sheetId="2" r:id="rId2"/>
     <sheet name="TrailHLBody" sheetId="3" r:id="rId3"/>
     <sheet name="TrailHLBody_Bar12" sheetId="5" r:id="rId4"/>
-    <sheet name="TrailHLBODY2" sheetId="4" r:id="rId5"/>
-    <sheet name="BB Stop (2)" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="BBTF" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId6"/>
+    <sheet name="TrailHLBODY2" sheetId="4" r:id="rId7"/>
+    <sheet name="BB Stop (2)" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet7!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Sheet7!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TrailHLBody!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TrailHLBody_Bar12!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TrailHLBODY2!$A$1:$D$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TrailHLBODY2!$A$1:$D$257</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,43 +721,43 @@
         <v>3.49E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S44" si="12">C44</f>
+        <f t="shared" ref="S3:S42" si="12">C44</f>
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T44" si="13">C85</f>
+        <f t="shared" ref="T3:T42" si="13">C85</f>
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U44" si="14">C126</f>
+        <f t="shared" ref="U3:U42" si="14">C126</f>
         <v>8.2199999999999995E-2</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V44" si="15">C167</f>
+        <f t="shared" ref="V3:V42" si="15">C167</f>
         <v>9.8199999999999996E-2</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W44" si="16">C208</f>
+        <f t="shared" ref="W3:W42" si="16">C208</f>
         <v>0.12</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X44" si="17">C249</f>
+        <f t="shared" ref="X3:X42" si="17">C249</f>
         <v>0.1336</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y44" si="18">C290</f>
+        <f t="shared" ref="Y3:Y42" si="18">C290</f>
         <v>0.14990000000000001</v>
       </c>
       <c r="Z3" s="1">
-        <f t="shared" ref="Z3:Z44" si="19">C331</f>
+        <f t="shared" ref="Z3:Z42" si="19">C331</f>
         <v>0.1691</v>
       </c>
       <c r="AA3" s="1">
-        <f t="shared" ref="AA3:AA44" si="20">C372</f>
+        <f t="shared" ref="AA3:AA42" si="20">C372</f>
         <v>0.188</v>
       </c>
       <c r="AB3" s="1">
-        <f t="shared" ref="AB3:AB44" si="21">C413</f>
+        <f t="shared" ref="AB3:AB42" si="21">C413</f>
         <v>0.2036</v>
       </c>
     </row>
@@ -21889,7 +21891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F669108-FDA7-48DE-B009-95FC342D7A2D}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -22786,6 +22788,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4B7409-0615-4BBC-8AD4-4E0E321EA6C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F3916D-A503-4A84-BF9C-39472BCA076F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB4B588-BEF8-4F69-AB7B-A040A1D614CD}">
   <dimension ref="A1:D257"/>
   <sheetViews>
@@ -26430,7 +26456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A300F77E-A44E-4AD2-B67F-F38B4D6DE878}">
   <dimension ref="A1:AB452"/>
   <sheetViews>
@@ -36681,12 +36707,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AF7AEE-DB85-46AA-A85D-9AB9EB15F3C1}">
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:L337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36697,7 +36723,7 @@
     <col min="4" max="4" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36710,8 +36736,20 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>0.75</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1.7600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
@@ -36724,8 +36762,20 @@
       <c r="D2" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -36738,8 +36788,20 @@
       <c r="D3" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.9499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -36752,8 +36814,20 @@
       <c r="D4" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -36766,8 +36840,20 @@
       <c r="D5" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -36780,8 +36866,20 @@
       <c r="D6" s="3">
         <v>2.3000000000000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.52E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2.0400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -36794,8 +36892,20 @@
       <c r="D7" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -36808,8 +36918,20 @@
       <c r="D8" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>0.75</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.93E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -36822,8 +36944,20 @@
       <c r="D9" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>0.75</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -36836,8 +36970,20 @@
       <c r="D10" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0.75</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3.5700000000000003E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19</v>
       </c>
@@ -36850,8 +36996,20 @@
       <c r="D11" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>0.75</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.33E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22</v>
       </c>
@@ -36864,8 +37022,20 @@
       <c r="D12" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
@@ -36878,8 +37048,20 @@
       <c r="D13" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.6199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
@@ -36892,8 +37074,20 @@
       <c r="D14" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <v>0.75</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
@@ -36906,8 +37100,20 @@
       <c r="D15" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>19</v>
+      </c>
+      <c r="J15">
+        <v>0.75</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31</v>
       </c>
@@ -36920,8 +37126,20 @@
       <c r="D16" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>32</v>
       </c>
@@ -36934,8 +37152,20 @@
       <c r="D17" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2.7499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -36948,8 +37178,20 @@
       <c r="D18" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -36962,8 +37204,20 @@
       <c r="D19" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>0.75</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2.9099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -36976,8 +37230,20 @@
       <c r="D20" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>23</v>
       </c>
@@ -36990,8 +37256,20 @@
       <c r="D21" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>24</v>
       </c>
@@ -37004,8 +37282,20 @@
       <c r="D22" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <v>0.75</v>
+      </c>
+      <c r="K22" s="1">
+        <v>8.8099999999999998E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>25</v>
       </c>
@@ -37018,8 +37308,20 @@
       <c r="D23" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>27</v>
+      </c>
+      <c r="J23">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9.69E-2</v>
+      </c>
+      <c r="L23" s="1">
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>33</v>
       </c>
@@ -37032,8 +37334,20 @@
       <c r="D24" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>0.75</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.1014</v>
+      </c>
+      <c r="L24" s="1">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>34</v>
       </c>
@@ -37046,8 +37360,20 @@
       <c r="D25" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>29</v>
+      </c>
+      <c r="J25">
+        <v>0.75</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="L25" s="1">
+        <v>3.32E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>44</v>
       </c>
@@ -37060,8 +37386,20 @@
       <c r="D26" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>0.75</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="L26" s="1">
+        <v>3.29E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45</v>
       </c>
@@ -37074,8 +37412,20 @@
       <c r="D27" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.1095</v>
+      </c>
+      <c r="L27" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>46</v>
       </c>
@@ -37088,8 +37438,20 @@
       <c r="D28" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>0.75</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.1113</v>
+      </c>
+      <c r="L28" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>47</v>
       </c>
@@ -37102,8 +37464,20 @@
       <c r="D29" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>0.75</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.1148</v>
+      </c>
+      <c r="L29" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>49</v>
       </c>
@@ -37116,8 +37490,20 @@
       <c r="D30" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>34</v>
+      </c>
+      <c r="J30">
+        <v>0.75</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.1172</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
@@ -37130,8 +37516,20 @@
       <c r="D31" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <v>0.75</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>51</v>
       </c>
@@ -37144,8 +37542,20 @@
       <c r="D32" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>36</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>52</v>
       </c>
@@ -37158,8 +37568,20 @@
       <c r="D33" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>0.75</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.127</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>53</v>
       </c>
@@ -37172,8 +37594,20 @@
       <c r="D34" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.1295</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>54</v>
       </c>
@@ -37186,8 +37620,20 @@
       <c r="D35" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>39</v>
+      </c>
+      <c r="J35">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>30</v>
       </c>
@@ -37200,8 +37646,20 @@
       <c r="D36" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.1351</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>31</v>
       </c>
@@ -37214,8 +37672,20 @@
       <c r="D37" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>41</v>
+      </c>
+      <c r="J37">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.1361</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -37228,8 +37698,20 @@
       <c r="D38" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>42</v>
+      </c>
+      <c r="J38">
+        <v>0.75</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.1409</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -37242,8 +37724,20 @@
       <c r="D39" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>43</v>
+      </c>
+      <c r="J39">
+        <v>0.75</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="L39" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -37256,8 +37750,20 @@
       <c r="D40" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>44</v>
+      </c>
+      <c r="J40">
+        <v>0.75</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -37270,8 +37776,20 @@
       <c r="D41" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>45</v>
+      </c>
+      <c r="J41">
+        <v>0.75</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3.4099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -37284,8 +37802,20 @@
       <c r="D42" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>46</v>
+      </c>
+      <c r="J42">
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.1643</v>
+      </c>
+      <c r="L42" s="1">
+        <v>3.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>29</v>
       </c>
@@ -37298,8 +37828,20 @@
       <c r="D43" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>47</v>
+      </c>
+      <c r="J43">
+        <v>0.75</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="L43" s="1">
+        <v>3.49E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>30</v>
       </c>
@@ -37312,8 +37854,20 @@
       <c r="D44" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>48</v>
+      </c>
+      <c r="J44">
+        <v>0.75</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="L44" s="1">
+        <v>3.46E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>33</v>
       </c>
@@ -37326,8 +37880,20 @@
       <c r="D45" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>49</v>
+      </c>
+      <c r="J45">
+        <v>0.75</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="L45" s="1">
+        <v>3.49E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>34</v>
       </c>
@@ -37340,8 +37906,20 @@
       <c r="D46" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>50</v>
+      </c>
+      <c r="J46">
+        <v>0.75</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.1767</v>
+      </c>
+      <c r="L46" s="1">
+        <v>3.47E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>35</v>
       </c>
@@ -37354,8 +37932,20 @@
       <c r="D47" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <v>0.75</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="L47" s="1">
+        <v>3.5200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>39</v>
       </c>
@@ -37368,8 +37958,20 @@
       <c r="D48" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>52</v>
+      </c>
+      <c r="J48">
+        <v>0.75</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="L48" s="1">
+        <v>3.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>40</v>
       </c>
@@ -37382,8 +37984,20 @@
       <c r="D49" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>53</v>
+      </c>
+      <c r="J49">
+        <v>0.75</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="L49" s="1">
+        <v>3.49E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>41</v>
       </c>
@@ -37396,8 +38010,20 @@
       <c r="D50" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>54</v>
+      </c>
+      <c r="J50">
+        <v>0.75</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0.1885</v>
+      </c>
+      <c r="L50" s="1">
+        <v>3.46E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>42</v>
       </c>
@@ -37410,8 +38036,20 @@
       <c r="D51" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>55</v>
+      </c>
+      <c r="J51">
+        <v>0.75</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.18890000000000001</v>
+      </c>
+      <c r="L51" s="1">
+        <v>3.4199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>43</v>
       </c>
@@ -37424,8 +38062,20 @@
       <c r="D52" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>56</v>
+      </c>
+      <c r="J52">
+        <v>0.75</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="L52" s="1">
+        <v>3.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>44</v>
       </c>
@@ -37438,8 +38088,20 @@
       <c r="D53" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>57</v>
+      </c>
+      <c r="J53">
+        <v>0.75</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="L53" s="1">
+        <v>3.4199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>45</v>
       </c>
@@ -37452,8 +38114,20 @@
       <c r="D54" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>58</v>
+      </c>
+      <c r="J54">
+        <v>0.75</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0.1973</v>
+      </c>
+      <c r="L54" s="1">
+        <v>3.4099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>47</v>
       </c>
@@ -37466,8 +38140,20 @@
       <c r="D55" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>59</v>
+      </c>
+      <c r="J55">
+        <v>0.75</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="L55" s="1">
+        <v>3.4099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -37480,8 +38166,20 @@
       <c r="D56" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <v>0.75</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="L56" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -37494,8 +38192,20 @@
       <c r="D57" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1.82E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>31</v>
       </c>
@@ -37508,8 +38218,20 @@
       <c r="D58" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1.83E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>33</v>
       </c>
@@ -37522,8 +38244,20 @@
       <c r="D59" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>7</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>39</v>
       </c>
@@ -37536,8 +38270,20 @@
       <c r="D60" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>8</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -37550,8 +38296,20 @@
       <c r="D61" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>9</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2.1299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -37564,8 +38322,20 @@
       <c r="D62" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1.99E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -37578,8 +38348,20 @@
       <c r="D63" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>11</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>13</v>
       </c>
@@ -37592,8 +38374,20 @@
       <c r="D64" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>12</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>14</v>
       </c>
@@ -37606,8 +38400,20 @@
       <c r="D65" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>13</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>3.78E-2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>23</v>
       </c>
@@ -37620,8 +38426,20 @@
       <c r="D66" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>24</v>
       </c>
@@ -37634,8 +38452,20 @@
       <c r="D67" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>15</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2.47E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>28</v>
       </c>
@@ -37648,8 +38478,20 @@
       <c r="D68" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>16</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2.5899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>29</v>
       </c>
@@ -37662,8 +38504,20 @@
       <c r="D69" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>17</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>30</v>
       </c>
@@ -37676,8 +38530,20 @@
       <c r="D70" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>18</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>33</v>
       </c>
@@ -37690,8 +38556,20 @@
       <c r="D71" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>19</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>34</v>
       </c>
@@ -37704,8 +38582,20 @@
       <c r="D72" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>20</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="1">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>2.8500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>35</v>
       </c>
@@ -37718,8 +38608,20 @@
       <c r="D73" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>21</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>37</v>
       </c>
@@ -37732,8 +38634,20 @@
       <c r="D74" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>22</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="1">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2.8900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38</v>
       </c>
@@ -37746,8 +38660,20 @@
       <c r="D75" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>23</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75" s="1">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>43</v>
       </c>
@@ -37760,8 +38686,20 @@
       <c r="D76" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>24</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>45</v>
       </c>
@@ -37774,8 +38712,20 @@
       <c r="D77" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>25</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0.1046</v>
+      </c>
+      <c r="L77" s="1">
+        <v>3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>46</v>
       </c>
@@ -37788,8 +38738,20 @@
       <c r="D78" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>26</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0.1081</v>
+      </c>
+      <c r="L78" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>47</v>
       </c>
@@ -37802,8 +38764,20 @@
       <c r="D79" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>27</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0.1113</v>
+      </c>
+      <c r="L79" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>55</v>
       </c>
@@ -37816,8 +38790,20 @@
       <c r="D80" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>28</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="L80" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>56</v>
       </c>
@@ -37830,8 +38816,20 @@
       <c r="D81" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>29</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="L81" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>57</v>
       </c>
@@ -37844,8 +38842,20 @@
       <c r="D82" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>30</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0.1227</v>
+      </c>
+      <c r="L82" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>58</v>
       </c>
@@ -37858,8 +38868,20 @@
       <c r="D83" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>31</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0.1245</v>
+      </c>
+      <c r="L83" s="1">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>59</v>
       </c>
@@ -37872,8 +38894,20 @@
       <c r="D84" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>32</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="L84" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>60</v>
       </c>
@@ -37886,8 +38920,20 @@
       <c r="D85" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>33</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="L85" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -37900,8 +38946,20 @@
       <c r="D86" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>34</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="L86" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
@@ -37914,8 +38972,20 @@
       <c r="D87" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>35</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L87" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10</v>
       </c>
@@ -37928,8 +38998,20 @@
       <c r="D88" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>36</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0.1414</v>
+      </c>
+      <c r="L88" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -37942,8 +39024,20 @@
       <c r="D89" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>37</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0.1454</v>
+      </c>
+      <c r="L89" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -37956,8 +39050,20 @@
       <c r="D90" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>38</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0.1512</v>
+      </c>
+      <c r="L90" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13</v>
       </c>
@@ -37970,8 +39076,20 @@
       <c r="D91" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>39</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="L91" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -37984,8 +39102,20 @@
       <c r="D92" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>40</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0.1588</v>
+      </c>
+      <c r="L92" s="1">
+        <v>3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15</v>
       </c>
@@ -37998,8 +39128,20 @@
       <c r="D93" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>41</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="L93" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>17</v>
       </c>
@@ -38012,8 +39154,20 @@
       <c r="D94" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>42</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0.17680000000000001</v>
+      </c>
+      <c r="L94" s="1">
+        <v>3.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>18</v>
       </c>
@@ -38026,8 +39180,20 @@
       <c r="D95" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>43</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0.1807</v>
+      </c>
+      <c r="L95" s="1">
+        <v>3.47E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>19</v>
       </c>
@@ -38040,8 +39206,20 @@
       <c r="D96" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>44</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="L96" s="1">
+        <v>3.48E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>21</v>
       </c>
@@ -38054,8 +39232,20 @@
       <c r="D97" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>45</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0.1855</v>
+      </c>
+      <c r="L97" s="1">
+        <v>3.4499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22</v>
       </c>
@@ -38068,8 +39258,20 @@
       <c r="D98" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>46</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="L98" s="1">
+        <v>3.46E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>26</v>
       </c>
@@ -38082,8 +39284,20 @@
       <c r="D99" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>47</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0.1953</v>
+      </c>
+      <c r="L99" s="1">
+        <v>3.48E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>27</v>
       </c>
@@ -38096,8 +39310,20 @@
       <c r="D100" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>48</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0.2031</v>
+      </c>
+      <c r="L100" s="1">
+        <v>3.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>29</v>
       </c>
@@ -38110,8 +39336,20 @@
       <c r="D101" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>49</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0.20549999999999999</v>
+      </c>
+      <c r="L101" s="1">
+        <v>3.5300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>30</v>
       </c>
@@ -38124,8 +39362,20 @@
       <c r="D102" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>50</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="L102" s="1">
+        <v>3.46E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>31</v>
       </c>
@@ -38138,8 +39388,20 @@
       <c r="D103" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>51</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="L103" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>32</v>
       </c>
@@ -38152,8 +39414,20 @@
       <c r="D104" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>52</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0.20630000000000001</v>
+      </c>
+      <c r="L104" s="1">
+        <v>3.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>35</v>
       </c>
@@ -38166,8 +39440,20 @@
       <c r="D105" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>53</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0.2099</v>
+      </c>
+      <c r="L105" s="1">
+        <v>3.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>37</v>
       </c>
@@ -38180,8 +39466,20 @@
       <c r="D106" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>54</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="L106" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>38</v>
       </c>
@@ -38194,8 +39492,20 @@
       <c r="D107" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>55</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="L107" s="1">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>39</v>
       </c>
@@ -38208,8 +39518,20 @@
       <c r="D108" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>56</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="L108" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>40</v>
       </c>
@@ -38222,8 +39544,20 @@
       <c r="D109" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>57</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="L109" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>41</v>
       </c>
@@ -38236,8 +39570,20 @@
       <c r="D110" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>58</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0.2298</v>
+      </c>
+      <c r="L110" s="1">
+        <v>3.3700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>42</v>
       </c>
@@ -38250,8 +39596,20 @@
       <c r="D111" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>59</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="L111" s="1">
+        <v>3.32E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>43</v>
       </c>
@@ -38264,8 +39622,20 @@
       <c r="D112" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>60</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0.2344</v>
+      </c>
+      <c r="L112" s="1">
+        <v>3.32E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>48</v>
       </c>
@@ -38278,8 +39648,20 @@
       <c r="D113" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>5</v>
+      </c>
+      <c r="J113">
+        <v>1.25</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="L113" s="1">
+        <v>1.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>55</v>
       </c>
@@ -38292,8 +39674,20 @@
       <c r="D114" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="J114">
+        <v>1.25</v>
+      </c>
+      <c r="K114" s="1">
+        <v>2.07E-2</v>
+      </c>
+      <c r="L114" s="1">
+        <v>1.9400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>57</v>
       </c>
@@ -38306,8 +39700,20 @@
       <c r="D115" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>7</v>
+      </c>
+      <c r="J115">
+        <v>1.25</v>
+      </c>
+      <c r="K115" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="L115" s="1">
+        <v>1.97E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>58</v>
       </c>
@@ -38320,8 +39726,20 @@
       <c r="D116" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <v>1.25</v>
+      </c>
+      <c r="K116" s="1">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>59</v>
       </c>
@@ -38334,8 +39752,20 @@
       <c r="D117" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>9</v>
+      </c>
+      <c r="J117">
+        <v>1.25</v>
+      </c>
+      <c r="K117" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="L117" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>60</v>
       </c>
@@ -38348,8 +39778,20 @@
       <c r="D118" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>1.25</v>
+      </c>
+      <c r="K118" s="1">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="L118" s="1">
+        <v>1.9400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -38362,8 +39804,20 @@
       <c r="D119" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>11</v>
+      </c>
+      <c r="J119">
+        <v>1.25</v>
+      </c>
+      <c r="K119" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="L119" s="1">
+        <v>2.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>14</v>
       </c>
@@ -38376,8 +39830,20 @@
       <c r="D120" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>12</v>
+      </c>
+      <c r="J120">
+        <v>1.25</v>
+      </c>
+      <c r="K120" s="1">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="L120" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>15</v>
       </c>
@@ -38390,8 +39856,20 @@
       <c r="D121" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>13</v>
+      </c>
+      <c r="J121">
+        <v>1.25</v>
+      </c>
+      <c r="K121" s="1">
+        <v>4.58E-2</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2.2899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>17</v>
       </c>
@@ -38404,8 +39882,20 @@
       <c r="D122" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>14</v>
+      </c>
+      <c r="J122">
+        <v>1.25</v>
+      </c>
+      <c r="K122" s="1">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="L122" s="1">
+        <v>2.47E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>18</v>
       </c>
@@ -38418,8 +39908,20 @@
       <c r="D123" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>15</v>
+      </c>
+      <c r="J123">
+        <v>1.25</v>
+      </c>
+      <c r="K123" s="1">
+        <v>5.79E-2</v>
+      </c>
+      <c r="L123" s="1">
+        <v>2.5500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22</v>
       </c>
@@ -38432,8 +39934,20 @@
       <c r="D124" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>16</v>
+      </c>
+      <c r="J124">
+        <v>1.25</v>
+      </c>
+      <c r="K124" s="1">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="L124" s="1">
+        <v>2.65E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>25</v>
       </c>
@@ -38446,8 +39960,20 @@
       <c r="D125" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>1.25</v>
+      </c>
+      <c r="K125" s="1">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="L125" s="1">
+        <v>2.7699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>29</v>
       </c>
@@ -38460,8 +39986,20 @@
       <c r="D126" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>18</v>
+      </c>
+      <c r="J126">
+        <v>1.25</v>
+      </c>
+      <c r="K126" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L126" s="1">
+        <v>2.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>32</v>
       </c>
@@ -38474,8 +40012,20 @@
       <c r="D127" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>19</v>
+      </c>
+      <c r="J127">
+        <v>1.25</v>
+      </c>
+      <c r="K127" s="1">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="L127" s="1">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>34</v>
       </c>
@@ -38488,8 +40038,20 @@
       <c r="D128" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>20</v>
+      </c>
+      <c r="J128">
+        <v>1.25</v>
+      </c>
+      <c r="K128" s="1">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="L128" s="1">
+        <v>3.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>35</v>
       </c>
@@ -38502,8 +40064,20 @@
       <c r="D129" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>21</v>
+      </c>
+      <c r="J129">
+        <v>1.25</v>
+      </c>
+      <c r="K129" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L129" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>37</v>
       </c>
@@ -38516,8 +40090,20 @@
       <c r="D130" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>22</v>
+      </c>
+      <c r="J130">
+        <v>1.25</v>
+      </c>
+      <c r="K130" s="1">
+        <v>0.1011</v>
+      </c>
+      <c r="L130" s="1">
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>39</v>
       </c>
@@ -38530,8 +40116,20 @@
       <c r="D131" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>23</v>
+      </c>
+      <c r="J131">
+        <v>1.25</v>
+      </c>
+      <c r="K131" s="1">
+        <v>0.1057</v>
+      </c>
+      <c r="L131" s="1">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>40</v>
       </c>
@@ -38544,8 +40142,20 @@
       <c r="D132" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>24</v>
+      </c>
+      <c r="J132">
+        <v>1.25</v>
+      </c>
+      <c r="K132" s="1">
+        <v>0.1166</v>
+      </c>
+      <c r="L132" s="1">
+        <v>3.29E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>41</v>
       </c>
@@ -38558,8 +40168,20 @@
       <c r="D133" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>25</v>
+      </c>
+      <c r="J133">
+        <v>1.25</v>
+      </c>
+      <c r="K133" s="1">
+        <v>0.1191</v>
+      </c>
+      <c r="L133" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>42</v>
       </c>
@@ -38572,8 +40194,20 @@
       <c r="D134" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>26</v>
+      </c>
+      <c r="J134">
+        <v>1.25</v>
+      </c>
+      <c r="K134" s="1">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="L134" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>43</v>
       </c>
@@ -38586,8 +40220,20 @@
       <c r="D135" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>27</v>
+      </c>
+      <c r="J135">
+        <v>1.25</v>
+      </c>
+      <c r="K135" s="1">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="L135" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>44</v>
       </c>
@@ -38600,8 +40246,20 @@
       <c r="D136" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>28</v>
+      </c>
+      <c r="J136">
+        <v>1.25</v>
+      </c>
+      <c r="K136" s="1">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="L136" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>45</v>
       </c>
@@ -38614,8 +40272,20 @@
       <c r="D137" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>29</v>
+      </c>
+      <c r="J137">
+        <v>1.25</v>
+      </c>
+      <c r="K137" s="1">
+        <v>0.1323</v>
+      </c>
+      <c r="L137" s="1">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>46</v>
       </c>
@@ -38628,8 +40298,20 @@
       <c r="D138" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>30</v>
+      </c>
+      <c r="J138">
+        <v>1.25</v>
+      </c>
+      <c r="K138" s="1">
+        <v>0.1381</v>
+      </c>
+      <c r="L138" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>47</v>
       </c>
@@ -38642,8 +40324,20 @@
       <c r="D139" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>31</v>
+      </c>
+      <c r="J139">
+        <v>1.25</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="L139" s="1">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>48</v>
       </c>
@@ -38656,8 +40350,20 @@
       <c r="D140" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>32</v>
+      </c>
+      <c r="J140">
+        <v>1.25</v>
+      </c>
+      <c r="K140" s="1">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="L140" s="1">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>49</v>
       </c>
@@ -38670,8 +40376,20 @@
       <c r="D141" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>33</v>
+      </c>
+      <c r="J141">
+        <v>1.25</v>
+      </c>
+      <c r="K141" s="1">
+        <v>0.1489</v>
+      </c>
+      <c r="L141" s="1">
+        <v>3.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>50</v>
       </c>
@@ -38684,8 +40402,20 @@
       <c r="D142" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>34</v>
+      </c>
+      <c r="J142">
+        <v>1.25</v>
+      </c>
+      <c r="K142" s="1">
+        <v>0.15210000000000001</v>
+      </c>
+      <c r="L142" s="1">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>54</v>
       </c>
@@ -38698,8 +40428,20 @@
       <c r="D143" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>35</v>
+      </c>
+      <c r="J143">
+        <v>1.25</v>
+      </c>
+      <c r="K143" s="1">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="L143" s="1">
+        <v>3.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>55</v>
       </c>
@@ -38712,8 +40454,20 @@
       <c r="D144" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>36</v>
+      </c>
+      <c r="J144">
+        <v>1.25</v>
+      </c>
+      <c r="K144" s="1">
+        <v>0.1638</v>
+      </c>
+      <c r="L144" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>56</v>
       </c>
@@ -38726,8 +40480,20 @@
       <c r="D145" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>37</v>
+      </c>
+      <c r="J145">
+        <v>1.25</v>
+      </c>
+      <c r="K145" s="1">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="L145" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>57</v>
       </c>
@@ -38740,8 +40506,20 @@
       <c r="D146" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>38</v>
+      </c>
+      <c r="J146">
+        <v>1.25</v>
+      </c>
+      <c r="K146" s="1">
+        <v>0.17180000000000001</v>
+      </c>
+      <c r="L146" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>58</v>
       </c>
@@ -38754,8 +40532,20 @@
       <c r="D147" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>39</v>
+      </c>
+      <c r="J147">
+        <v>1.25</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="L147" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -38768,8 +40558,20 @@
       <c r="D148" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>40</v>
+      </c>
+      <c r="J148">
+        <v>1.25</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="L148" s="1">
+        <v>3.29E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11</v>
       </c>
@@ -38782,8 +40584,20 @@
       <c r="D149" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>41</v>
+      </c>
+      <c r="J149">
+        <v>1.25</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="L149" s="1">
+        <v>3.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>12</v>
       </c>
@@ -38796,8 +40610,20 @@
       <c r="D150" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>42</v>
+      </c>
+      <c r="J150">
+        <v>1.25</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0.1925</v>
+      </c>
+      <c r="L150" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>16</v>
       </c>
@@ -38810,8 +40636,20 @@
       <c r="D151" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>43</v>
+      </c>
+      <c r="J151">
+        <v>1.25</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0.19409999999999999</v>
+      </c>
+      <c r="L151" s="1">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>26</v>
       </c>
@@ -38824,8 +40662,20 @@
       <c r="D152" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>44</v>
+      </c>
+      <c r="J152">
+        <v>1.25</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0.2082</v>
+      </c>
+      <c r="L152" s="1">
+        <v>3.48E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>28</v>
       </c>
@@ -38838,8 +40688,20 @@
       <c r="D153" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>45</v>
+      </c>
+      <c r="J153">
+        <v>1.25</v>
+      </c>
+      <c r="K153" s="1">
+        <v>0.2112</v>
+      </c>
+      <c r="L153" s="1">
+        <v>3.46E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>30</v>
       </c>
@@ -38852,8 +40714,20 @@
       <c r="D154" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>46</v>
+      </c>
+      <c r="J154">
+        <v>1.25</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="L154" s="1">
+        <v>3.4199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>31</v>
       </c>
@@ -38866,8 +40740,20 @@
       <c r="D155" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>47</v>
+      </c>
+      <c r="J155">
+        <v>1.25</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0.2127</v>
+      </c>
+      <c r="L155" s="1">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>33</v>
       </c>
@@ -38880,8 +40766,20 @@
       <c r="D156" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>48</v>
+      </c>
+      <c r="J156">
+        <v>1.25</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="L156" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>34</v>
       </c>
@@ -38894,8 +40792,20 @@
       <c r="D157" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>49</v>
+      </c>
+      <c r="J157">
+        <v>1.25</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0.2155</v>
+      </c>
+      <c r="L157" s="1">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>35</v>
       </c>
@@ -38908,8 +40818,20 @@
       <c r="D158" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>50</v>
+      </c>
+      <c r="J158">
+        <v>1.25</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0.22070000000000001</v>
+      </c>
+      <c r="L158" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>36</v>
       </c>
@@ -38922,8 +40844,20 @@
       <c r="D159" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>51</v>
+      </c>
+      <c r="J159">
+        <v>1.25</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="L159" s="1">
+        <v>3.3700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>38</v>
       </c>
@@ -38936,8 +40870,20 @@
       <c r="D160" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>52</v>
+      </c>
+      <c r="J160">
+        <v>1.25</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0.2334</v>
+      </c>
+      <c r="L160" s="1">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>39</v>
       </c>
@@ -38950,8 +40896,20 @@
       <c r="D161" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>53</v>
+      </c>
+      <c r="J161">
+        <v>1.25</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="L161" s="1">
+        <v>3.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>40</v>
       </c>
@@ -38964,8 +40922,20 @@
       <c r="D162" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>54</v>
+      </c>
+      <c r="J162">
+        <v>1.25</v>
+      </c>
+      <c r="K162" s="1">
+        <v>0.2437</v>
+      </c>
+      <c r="L162" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>41</v>
       </c>
@@ -38978,8 +40948,20 @@
       <c r="D163" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>55</v>
+      </c>
+      <c r="J163">
+        <v>1.25</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0.2472</v>
+      </c>
+      <c r="L163" s="1">
+        <v>3.32E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>42</v>
       </c>
@@ -38992,8 +40974,20 @@
       <c r="D164" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>56</v>
+      </c>
+      <c r="J164">
+        <v>1.25</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="L164" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>43</v>
       </c>
@@ -39006,8 +41000,20 @@
       <c r="D165" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>57</v>
+      </c>
+      <c r="J165">
+        <v>1.25</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="L165" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>44</v>
       </c>
@@ -39020,8 +41026,20 @@
       <c r="D166" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>58</v>
+      </c>
+      <c r="J166">
+        <v>1.25</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="L166" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>45</v>
       </c>
@@ -39034,8 +41052,20 @@
       <c r="D167" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>59</v>
+      </c>
+      <c r="J167">
+        <v>1.25</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="L167" s="1">
+        <v>3.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>46</v>
       </c>
@@ -39048,8 +41078,20 @@
       <c r="D168" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>60</v>
+      </c>
+      <c r="J168">
+        <v>1.25</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="L168" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>47</v>
       </c>
@@ -39062,8 +41104,20 @@
       <c r="D169" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
+        <v>1.5</v>
+      </c>
+      <c r="K169" s="1">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="L169" s="1">
+        <v>1.7799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>48</v>
       </c>
@@ -39076,8 +41130,20 @@
       <c r="D170" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>6</v>
+      </c>
+      <c r="J170">
+        <v>1.5</v>
+      </c>
+      <c r="K170" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="L170" s="1">
+        <v>1.8400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>49</v>
       </c>
@@ -39090,8 +41156,20 @@
       <c r="D171" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>1.5</v>
+      </c>
+      <c r="K171" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="L171" s="1">
+        <v>1.89E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>50</v>
       </c>
@@ -39104,8 +41182,20 @@
       <c r="D172" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>8</v>
+      </c>
+      <c r="J172">
+        <v>1.5</v>
+      </c>
+      <c r="K172" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="L172" s="1">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>51</v>
       </c>
@@ -39118,8 +41208,20 @@
       <c r="D173" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>9</v>
+      </c>
+      <c r="J173">
+        <v>1.5</v>
+      </c>
+      <c r="K173" s="1">
+        <v>3.44E-2</v>
+      </c>
+      <c r="L173" s="1">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>53</v>
       </c>
@@ -39132,8 +41234,20 @@
       <c r="D174" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>10</v>
+      </c>
+      <c r="J174">
+        <v>1.5</v>
+      </c>
+      <c r="K174" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="L174" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>54</v>
       </c>
@@ -39146,8 +41260,20 @@
       <c r="D175" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>11</v>
+      </c>
+      <c r="J175">
+        <v>1.5</v>
+      </c>
+      <c r="K175" s="1">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="L175" s="1">
+        <v>2.32E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>55</v>
       </c>
@@ -39160,8 +41286,20 @@
       <c r="D176" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>12</v>
+      </c>
+      <c r="J176">
+        <v>1.5</v>
+      </c>
+      <c r="K176" s="1">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="L176" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>56</v>
       </c>
@@ -39174,8 +41312,20 @@
       <c r="D177" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>13</v>
+      </c>
+      <c r="J177">
+        <v>1.5</v>
+      </c>
+      <c r="K177" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L177" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>57</v>
       </c>
@@ -39188,8 +41338,20 @@
       <c r="D178" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>14</v>
+      </c>
+      <c r="J178">
+        <v>1.5</v>
+      </c>
+      <c r="K178" s="1">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="L178" s="1">
+        <v>2.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>58</v>
       </c>
@@ -39202,8 +41364,20 @@
       <c r="D179" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>15</v>
+      </c>
+      <c r="J179">
+        <v>1.5</v>
+      </c>
+      <c r="K179" s="1">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="L179" s="1">
+        <v>2.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>60</v>
       </c>
@@ -39216,8 +41390,20 @@
       <c r="D180" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>16</v>
+      </c>
+      <c r="J180">
+        <v>1.5</v>
+      </c>
+      <c r="K180" s="1">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="L180" s="1">
+        <v>2.8800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9</v>
       </c>
@@ -39230,8 +41416,20 @@
       <c r="D181" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>17</v>
+      </c>
+      <c r="J181">
+        <v>1.5</v>
+      </c>
+      <c r="K181" s="1">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="L181" s="1">
+        <v>2.9299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10</v>
       </c>
@@ -39244,8 +41442,20 @@
       <c r="D182" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>18</v>
+      </c>
+      <c r="J182">
+        <v>1.5</v>
+      </c>
+      <c r="K182" s="1">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="L182" s="1">
+        <v>2.9499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>12</v>
       </c>
@@ -39258,8 +41468,20 @@
       <c r="D183" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>19</v>
+      </c>
+      <c r="J183">
+        <v>1.5</v>
+      </c>
+      <c r="K183" s="1">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="L183" s="1">
+        <v>3.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -39272,8 +41494,20 @@
       <c r="D184" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>20</v>
+      </c>
+      <c r="J184">
+        <v>1.5</v>
+      </c>
+      <c r="K184" s="1">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="L184" s="1">
+        <v>3.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>31</v>
       </c>
@@ -39286,8 +41520,20 @@
       <c r="D185" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>21</v>
+      </c>
+      <c r="J185">
+        <v>1.5</v>
+      </c>
+      <c r="K185" s="1">
+        <v>0.1091</v>
+      </c>
+      <c r="L185" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>32</v>
       </c>
@@ -39300,8 +41546,20 @@
       <c r="D186" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>22</v>
+      </c>
+      <c r="J186">
+        <v>1.5</v>
+      </c>
+      <c r="K186" s="1">
+        <v>0.1182</v>
+      </c>
+      <c r="L186" s="1">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>36</v>
       </c>
@@ -39314,8 +41572,20 @@
       <c r="D187" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>23</v>
+      </c>
+      <c r="J187">
+        <v>1.5</v>
+      </c>
+      <c r="K187" s="1">
+        <v>0.12759999999999999</v>
+      </c>
+      <c r="L187" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>37</v>
       </c>
@@ -39328,8 +41598,20 @@
       <c r="D188" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>24</v>
+      </c>
+      <c r="J188">
+        <v>1.5</v>
+      </c>
+      <c r="K188" s="1">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="L188" s="1">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>38</v>
       </c>
@@ -39342,8 +41624,20 @@
       <c r="D189" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>25</v>
+      </c>
+      <c r="J189">
+        <v>1.5</v>
+      </c>
+      <c r="K189" s="1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="L189" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>46</v>
       </c>
@@ -39356,8 +41650,20 @@
       <c r="D190" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>26</v>
+      </c>
+      <c r="J190">
+        <v>1.5</v>
+      </c>
+      <c r="K190" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="L190" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>48</v>
       </c>
@@ -39370,8 +41676,20 @@
       <c r="D191" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>27</v>
+      </c>
+      <c r="J191">
+        <v>1.5</v>
+      </c>
+      <c r="K191" s="1">
+        <v>0.1464</v>
+      </c>
+      <c r="L191" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>49</v>
       </c>
@@ -39384,8 +41702,20 @@
       <c r="D192" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>28</v>
+      </c>
+      <c r="J192">
+        <v>1.5</v>
+      </c>
+      <c r="K192" s="1">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="L192" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>50</v>
       </c>
@@ -39398,8 +41728,20 @@
       <c r="D193" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>29</v>
+      </c>
+      <c r="J193">
+        <v>1.5</v>
+      </c>
+      <c r="K193" s="1">
+        <v>0.1482</v>
+      </c>
+      <c r="L193" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -39412,8 +41754,20 @@
       <c r="D194" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>30</v>
+      </c>
+      <c r="J194">
+        <v>1.5</v>
+      </c>
+      <c r="K194" s="1">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="L194" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>11</v>
       </c>
@@ -39426,8 +41780,20 @@
       <c r="D195" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>31</v>
+      </c>
+      <c r="J195">
+        <v>1.5</v>
+      </c>
+      <c r="K195" s="1">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="L195" s="1">
+        <v>3.16E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>23</v>
       </c>
@@ -39440,8 +41806,20 @@
       <c r="D196" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>32</v>
+      </c>
+      <c r="J196">
+        <v>1.5</v>
+      </c>
+      <c r="K196" s="1">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="L196" s="1">
+        <v>3.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>24</v>
       </c>
@@ -39454,8 +41832,20 @@
       <c r="D197" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>33</v>
+      </c>
+      <c r="J197">
+        <v>1.5</v>
+      </c>
+      <c r="K197" s="1">
+        <v>0.1668</v>
+      </c>
+      <c r="L197" s="1">
+        <v>3.0899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>25</v>
       </c>
@@ -39468,8 +41858,20 @@
       <c r="D198" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>34</v>
+      </c>
+      <c r="J198">
+        <v>1.5</v>
+      </c>
+      <c r="K198" s="1">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="L198" s="1">
+        <v>3.16E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>26</v>
       </c>
@@ -39482,8 +41884,20 @@
       <c r="D199" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>35</v>
+      </c>
+      <c r="J199">
+        <v>1.5</v>
+      </c>
+      <c r="K199" s="1">
+        <v>0.1822</v>
+      </c>
+      <c r="L199" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>27</v>
       </c>
@@ -39496,8 +41910,20 @@
       <c r="D200" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>36</v>
+      </c>
+      <c r="J200">
+        <v>1.5</v>
+      </c>
+      <c r="K200" s="1">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="L200" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>28</v>
       </c>
@@ -39510,8 +41936,20 @@
       <c r="D201" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>37</v>
+      </c>
+      <c r="J201">
+        <v>1.5</v>
+      </c>
+      <c r="K201" s="1">
+        <v>0.19339999999999999</v>
+      </c>
+      <c r="L201" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>29</v>
       </c>
@@ -39524,8 +41962,20 @@
       <c r="D202" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>38</v>
+      </c>
+      <c r="J202">
+        <v>1.5</v>
+      </c>
+      <c r="K202" s="1">
+        <v>0.1963</v>
+      </c>
+      <c r="L202" s="1">
+        <v>3.2499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>30</v>
       </c>
@@ -39538,8 +41988,20 @@
       <c r="D203" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>39</v>
+      </c>
+      <c r="J203">
+        <v>1.5</v>
+      </c>
+      <c r="K203" s="1">
+        <v>0.2026</v>
+      </c>
+      <c r="L203" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>32</v>
       </c>
@@ -39552,8 +42014,20 @@
       <c r="D204" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>40</v>
+      </c>
+      <c r="J204">
+        <v>1.5</v>
+      </c>
+      <c r="K204" s="1">
+        <v>0.2117</v>
+      </c>
+      <c r="L204" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>34</v>
       </c>
@@ -39566,8 +42040,20 @@
       <c r="D205" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>41</v>
+      </c>
+      <c r="J205">
+        <v>1.5</v>
+      </c>
+      <c r="K205" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="L205" s="1">
+        <v>3.4399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>36</v>
       </c>
@@ -39580,8 +42066,20 @@
       <c r="D206" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>42</v>
+      </c>
+      <c r="J206">
+        <v>1.5</v>
+      </c>
+      <c r="K206" s="1">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="L206" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>37</v>
       </c>
@@ -39594,8 +42092,20 @@
       <c r="D207" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>43</v>
+      </c>
+      <c r="J207">
+        <v>1.5</v>
+      </c>
+      <c r="K207" s="1">
+        <v>0.2283</v>
+      </c>
+      <c r="L207" s="1">
+        <v>3.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>38</v>
       </c>
@@ -39608,8 +42118,20 @@
       <c r="D208" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>44</v>
+      </c>
+      <c r="J208">
+        <v>1.5</v>
+      </c>
+      <c r="K208" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L208" s="1">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>40</v>
       </c>
@@ -39622,8 +42144,20 @@
       <c r="D209" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>45</v>
+      </c>
+      <c r="J209">
+        <v>1.5</v>
+      </c>
+      <c r="K209" s="1">
+        <v>0.2329</v>
+      </c>
+      <c r="L209" s="1">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>6</v>
       </c>
@@ -39636,8 +42170,20 @@
       <c r="D210" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>46</v>
+      </c>
+      <c r="J210">
+        <v>1.5</v>
+      </c>
+      <c r="K210" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L210" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>12</v>
       </c>
@@ -39650,8 +42196,20 @@
       <c r="D211" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>47</v>
+      </c>
+      <c r="J211">
+        <v>1.5</v>
+      </c>
+      <c r="K211" s="1">
+        <v>0.24429999999999999</v>
+      </c>
+      <c r="L211" s="1">
+        <v>3.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>36</v>
       </c>
@@ -39664,8 +42222,20 @@
       <c r="D212" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <v>48</v>
+      </c>
+      <c r="J212">
+        <v>1.5</v>
+      </c>
+      <c r="K212" s="1">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="L212" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>39</v>
       </c>
@@ -39678,8 +42248,20 @@
       <c r="D213" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>49</v>
+      </c>
+      <c r="J213">
+        <v>1.5</v>
+      </c>
+      <c r="K213" s="1">
+        <v>0.25080000000000002</v>
+      </c>
+      <c r="L213" s="1">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>40</v>
       </c>
@@ -39692,8 +42274,20 @@
       <c r="D214" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>50</v>
+      </c>
+      <c r="J214">
+        <v>1.5</v>
+      </c>
+      <c r="K214" s="1">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="L214" s="1">
+        <v>3.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>41</v>
       </c>
@@ -39706,8 +42300,20 @@
       <c r="D215" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>51</v>
+      </c>
+      <c r="J215">
+        <v>1.5</v>
+      </c>
+      <c r="K215" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="L215" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>42</v>
       </c>
@@ -39720,8 +42326,20 @@
       <c r="D216" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <v>52</v>
+      </c>
+      <c r="J216">
+        <v>1.5</v>
+      </c>
+      <c r="K216" s="1">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="L216" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>44</v>
       </c>
@@ -39734,8 +42352,20 @@
       <c r="D217" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>53</v>
+      </c>
+      <c r="J217">
+        <v>1.5</v>
+      </c>
+      <c r="K217" s="1">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="L217" s="1">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>48</v>
       </c>
@@ -39748,8 +42378,20 @@
       <c r="D218" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>54</v>
+      </c>
+      <c r="J218">
+        <v>1.5</v>
+      </c>
+      <c r="K218" s="1">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="L218" s="1">
+        <v>3.16E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>49</v>
       </c>
@@ -39762,8 +42404,20 @@
       <c r="D219" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>55</v>
+      </c>
+      <c r="J219">
+        <v>1.5</v>
+      </c>
+      <c r="K219" s="1">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="L219" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>50</v>
       </c>
@@ -39776,8 +42430,20 @@
       <c r="D220" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>56</v>
+      </c>
+      <c r="J220">
+        <v>1.5</v>
+      </c>
+      <c r="K220" s="1">
+        <v>0.2611</v>
+      </c>
+      <c r="L220" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>51</v>
       </c>
@@ -39790,8 +42456,20 @@
       <c r="D221" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>57</v>
+      </c>
+      <c r="J221">
+        <v>1.5</v>
+      </c>
+      <c r="K221" s="1">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="L221" s="1">
+        <v>3.0899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>52</v>
       </c>
@@ -39804,8 +42482,20 @@
       <c r="D222" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>58</v>
+      </c>
+      <c r="J222">
+        <v>1.5</v>
+      </c>
+      <c r="K222" s="1">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="L222" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>53</v>
       </c>
@@ -39818,8 +42508,20 @@
       <c r="D223" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>59</v>
+      </c>
+      <c r="J223">
+        <v>1.5</v>
+      </c>
+      <c r="K223" s="1">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="L223" s="1">
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>54</v>
       </c>
@@ -39832,8 +42534,20 @@
       <c r="D224" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>60</v>
+      </c>
+      <c r="J224">
+        <v>1.5</v>
+      </c>
+      <c r="K224" s="1">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="L224" s="1">
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7</v>
       </c>
@@ -39846,8 +42560,20 @@
       <c r="D225" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>5</v>
+      </c>
+      <c r="J225">
+        <v>1.75</v>
+      </c>
+      <c r="K225" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="L225" s="1">
+        <v>1.98E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>28</v>
       </c>
@@ -39860,8 +42586,20 @@
       <c r="D226" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>6</v>
+      </c>
+      <c r="J226">
+        <v>1.75</v>
+      </c>
+      <c r="K226" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="L226" s="1">
+        <v>2.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>36</v>
       </c>
@@ -39874,8 +42612,20 @@
       <c r="D227" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>7</v>
+      </c>
+      <c r="J227">
+        <v>1.75</v>
+      </c>
+      <c r="K227" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L227" s="1">
+        <v>2.15E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>56</v>
       </c>
@@ -39888,8 +42638,20 @@
       <c r="D228" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>8</v>
+      </c>
+      <c r="J228">
+        <v>1.75</v>
+      </c>
+      <c r="K228" s="1">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="L228" s="1">
+        <v>2.32E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>8</v>
       </c>
@@ -39902,8 +42664,20 @@
       <c r="D229" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>9</v>
+      </c>
+      <c r="J229">
+        <v>1.75</v>
+      </c>
+      <c r="K229" s="1">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="L229" s="1">
+        <v>2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>12</v>
       </c>
@@ -39916,8 +42690,20 @@
       <c r="D230" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>10</v>
+      </c>
+      <c r="J230">
+        <v>1.75</v>
+      </c>
+      <c r="K230" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="L230" s="1">
+        <v>2.4599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13</v>
       </c>
@@ -39930,8 +42716,20 @@
       <c r="D231" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>11</v>
+      </c>
+      <c r="J231">
+        <v>1.75</v>
+      </c>
+      <c r="K231" s="1">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="L231" s="1">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>19</v>
       </c>
@@ -39944,8 +42742,20 @@
       <c r="D232" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>12</v>
+      </c>
+      <c r="J232">
+        <v>1.75</v>
+      </c>
+      <c r="K232" s="1">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="L232" s="1">
+        <v>2.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>20</v>
       </c>
@@ -39958,8 +42768,20 @@
       <c r="D233" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <v>13</v>
+      </c>
+      <c r="J233">
+        <v>1.75</v>
+      </c>
+      <c r="K233" s="1">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="L233" s="1">
+        <v>2.7200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>21</v>
       </c>
@@ -39972,8 +42794,20 @@
       <c r="D234" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>14</v>
+      </c>
+      <c r="J234">
+        <v>1.75</v>
+      </c>
+      <c r="K234" s="1">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="L234" s="1">
+        <v>2.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>23</v>
       </c>
@@ -39986,8 +42820,20 @@
       <c r="D235" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>15</v>
+      </c>
+      <c r="J235">
+        <v>1.75</v>
+      </c>
+      <c r="K235" s="1">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="L235" s="1">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>24</v>
       </c>
@@ -40000,8 +42846,20 @@
       <c r="D236" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>16</v>
+      </c>
+      <c r="J236">
+        <v>1.75</v>
+      </c>
+      <c r="K236" s="1">
+        <v>0.1037</v>
+      </c>
+      <c r="L236" s="1">
+        <v>3.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>26</v>
       </c>
@@ -40014,8 +42872,20 @@
       <c r="D237" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>17</v>
+      </c>
+      <c r="J237">
+        <v>1.75</v>
+      </c>
+      <c r="K237" s="1">
+        <v>0.1087</v>
+      </c>
+      <c r="L237" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>27</v>
       </c>
@@ -40028,8 +42898,20 @@
       <c r="D238" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>18</v>
+      </c>
+      <c r="J238">
+        <v>1.75</v>
+      </c>
+      <c r="K238" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L238" s="1">
+        <v>3.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>28</v>
       </c>
@@ -40042,8 +42924,20 @@
       <c r="D239" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>19</v>
+      </c>
+      <c r="J239">
+        <v>1.75</v>
+      </c>
+      <c r="K239" s="1">
+        <v>0.1173</v>
+      </c>
+      <c r="L239" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>36</v>
       </c>
@@ -40056,8 +42950,20 @@
       <c r="D240" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <v>20</v>
+      </c>
+      <c r="J240">
+        <v>1.75</v>
+      </c>
+      <c r="K240" s="1">
+        <v>0.1203</v>
+      </c>
+      <c r="L240" s="1">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>51</v>
       </c>
@@ -40070,8 +42976,20 @@
       <c r="D241" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>21</v>
+      </c>
+      <c r="J241">
+        <v>1.75</v>
+      </c>
+      <c r="K241" s="1">
+        <v>0.1258</v>
+      </c>
+      <c r="L241" s="1">
+        <v>2.98E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>52</v>
       </c>
@@ -40084,8 +43002,20 @@
       <c r="D242" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>22</v>
+      </c>
+      <c r="J242">
+        <v>1.75</v>
+      </c>
+      <c r="K242" s="1">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="L242" s="1">
+        <v>3.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>53</v>
       </c>
@@ -40098,8 +43028,20 @@
       <c r="D243" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>23</v>
+      </c>
+      <c r="J243">
+        <v>1.75</v>
+      </c>
+      <c r="K243" s="1">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="L243" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>59</v>
       </c>
@@ -40112,8 +43054,20 @@
       <c r="D244" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>24</v>
+      </c>
+      <c r="J244">
+        <v>1.75</v>
+      </c>
+      <c r="K244" s="1">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="L244" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>60</v>
       </c>
@@ -40126,8 +43080,20 @@
       <c r="D245" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>25</v>
+      </c>
+      <c r="J245">
+        <v>1.75</v>
+      </c>
+      <c r="K245" s="1">
+        <v>0.15540000000000001</v>
+      </c>
+      <c r="L245" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>8</v>
       </c>
@@ -40140,8 +43106,20 @@
       <c r="D246" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>26</v>
+      </c>
+      <c r="J246">
+        <v>1.75</v>
+      </c>
+      <c r="K246" s="1">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="L246" s="1">
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>14</v>
       </c>
@@ -40154,8 +43132,20 @@
       <c r="D247" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>27</v>
+      </c>
+      <c r="J247">
+        <v>1.75</v>
+      </c>
+      <c r="K247" s="1">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="L247" s="1">
+        <v>3.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15</v>
       </c>
@@ -40168,8 +43158,20 @@
       <c r="D248" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>28</v>
+      </c>
+      <c r="J248">
+        <v>1.75</v>
+      </c>
+      <c r="K248" s="1">
+        <v>0.1661</v>
+      </c>
+      <c r="L248" s="1">
+        <v>3.0599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>19</v>
       </c>
@@ -40182,8 +43184,20 @@
       <c r="D249" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>29</v>
+      </c>
+      <c r="J249">
+        <v>1.75</v>
+      </c>
+      <c r="K249" s="1">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="L249" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>20</v>
       </c>
@@ -40196,8 +43210,20 @@
       <c r="D250" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>30</v>
+      </c>
+      <c r="J250">
+        <v>1.75</v>
+      </c>
+      <c r="K250" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="L250" s="1">
+        <v>3.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>21</v>
       </c>
@@ -40210,8 +43236,20 @@
       <c r="D251" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>31</v>
+      </c>
+      <c r="J251">
+        <v>1.75</v>
+      </c>
+      <c r="K251" s="1">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="L251" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>22</v>
       </c>
@@ -40224,8 +43262,20 @@
       <c r="D252" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>32</v>
+      </c>
+      <c r="J252">
+        <v>1.75</v>
+      </c>
+      <c r="K252" s="1">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="L252" s="1">
+        <v>3.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>23</v>
       </c>
@@ -40238,8 +43288,20 @@
       <c r="D253" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <v>33</v>
+      </c>
+      <c r="J253">
+        <v>1.75</v>
+      </c>
+      <c r="K253" s="1">
+        <v>0.2029</v>
+      </c>
+      <c r="L253" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>24</v>
       </c>
@@ -40252,8 +43314,20 @@
       <c r="D254" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>34</v>
+      </c>
+      <c r="J254">
+        <v>1.75</v>
+      </c>
+      <c r="K254" s="1">
+        <v>0.2185</v>
+      </c>
+      <c r="L254" s="1">
+        <v>3.46E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>25</v>
       </c>
@@ -40266,8 +43340,20 @@
       <c r="D255" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <v>35</v>
+      </c>
+      <c r="J255">
+        <v>1.75</v>
+      </c>
+      <c r="K255" s="1">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="L255" s="1">
+        <v>3.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>27</v>
       </c>
@@ -40280,8 +43366,20 @@
       <c r="D256" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <v>36</v>
+      </c>
+      <c r="J256">
+        <v>1.75</v>
+      </c>
+      <c r="K256" s="1">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="L256" s="1">
+        <v>3.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>29</v>
       </c>
@@ -40294,8 +43392,20 @@
       <c r="D257" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>37</v>
+      </c>
+      <c r="J257">
+        <v>1.75</v>
+      </c>
+      <c r="K257" s="1">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="L257" s="1">
+        <v>3.3300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>32</v>
       </c>
@@ -40308,8 +43418,20 @@
       <c r="D258" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>38</v>
+      </c>
+      <c r="J258">
+        <v>1.75</v>
+      </c>
+      <c r="K258" s="1">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="L258" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>52</v>
       </c>
@@ -40322,8 +43444,20 @@
       <c r="D259" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>39</v>
+      </c>
+      <c r="J259">
+        <v>1.75</v>
+      </c>
+      <c r="K259" s="1">
+        <v>0.2278</v>
+      </c>
+      <c r="L259" s="1">
+        <v>3.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>59</v>
       </c>
@@ -40336,8 +43470,20 @@
       <c r="D260" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>40</v>
+      </c>
+      <c r="J260">
+        <v>1.75</v>
+      </c>
+      <c r="K260" s="1">
+        <v>0.2334</v>
+      </c>
+      <c r="L260" s="1">
+        <v>3.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>15</v>
       </c>
@@ -40350,8 +43496,20 @@
       <c r="D261" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>41</v>
+      </c>
+      <c r="J261">
+        <v>1.75</v>
+      </c>
+      <c r="K261" s="1">
+        <v>0.2394</v>
+      </c>
+      <c r="L261" s="1">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16</v>
       </c>
@@ -40364,8 +43522,20 @@
       <c r="D262" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>42</v>
+      </c>
+      <c r="J262">
+        <v>1.75</v>
+      </c>
+      <c r="K262" s="1">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="L262" s="1">
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>17</v>
       </c>
@@ -40378,8 +43548,20 @@
       <c r="D263" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>43</v>
+      </c>
+      <c r="J263">
+        <v>1.75</v>
+      </c>
+      <c r="K263" s="1">
+        <v>0.2457</v>
+      </c>
+      <c r="L263" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>23</v>
       </c>
@@ -40392,8 +43574,20 @@
       <c r="D264" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>44</v>
+      </c>
+      <c r="J264">
+        <v>1.75</v>
+      </c>
+      <c r="K264" s="1">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="L264" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>24</v>
       </c>
@@ -40406,8 +43600,20 @@
       <c r="D265" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>45</v>
+      </c>
+      <c r="J265">
+        <v>1.75</v>
+      </c>
+      <c r="K265" s="1">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="L265" s="1">
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>25</v>
       </c>
@@ -40420,8 +43626,20 @@
       <c r="D266" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>46</v>
+      </c>
+      <c r="J266">
+        <v>1.75</v>
+      </c>
+      <c r="K266" s="1">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="L266" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>26</v>
       </c>
@@ -40434,8 +43652,20 @@
       <c r="D267" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>47</v>
+      </c>
+      <c r="J267">
+        <v>1.75</v>
+      </c>
+      <c r="K267" s="1">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="L267" s="1">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>27</v>
       </c>
@@ -40448,8 +43678,20 @@
       <c r="D268" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>48</v>
+      </c>
+      <c r="J268">
+        <v>1.75</v>
+      </c>
+      <c r="K268" s="1">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="L268" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>51</v>
       </c>
@@ -40462,8 +43704,20 @@
       <c r="D269" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>49</v>
+      </c>
+      <c r="J269">
+        <v>1.75</v>
+      </c>
+      <c r="K269" s="1">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="L269" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>52</v>
       </c>
@@ -40476,8 +43730,20 @@
       <c r="D270" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>50</v>
+      </c>
+      <c r="J270">
+        <v>1.75</v>
+      </c>
+      <c r="K270" s="1">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="L270" s="1">
+        <v>3.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>53</v>
       </c>
@@ -40490,8 +43756,20 @@
       <c r="D271" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>51</v>
+      </c>
+      <c r="J271">
+        <v>1.75</v>
+      </c>
+      <c r="K271" s="1">
+        <v>0.2792</v>
+      </c>
+      <c r="L271" s="1">
+        <v>3.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>55</v>
       </c>
@@ -40504,8 +43782,20 @@
       <c r="D272" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>52</v>
+      </c>
+      <c r="J272">
+        <v>1.75</v>
+      </c>
+      <c r="K272" s="1">
+        <v>0.28610000000000002</v>
+      </c>
+      <c r="L272" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>56</v>
       </c>
@@ -40518,8 +43808,20 @@
       <c r="D273" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>53</v>
+      </c>
+      <c r="J273">
+        <v>1.75</v>
+      </c>
+      <c r="K273" s="1">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="L273" s="1">
+        <v>3.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>57</v>
       </c>
@@ -40532,8 +43834,20 @@
       <c r="D274" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <v>54</v>
+      </c>
+      <c r="J274">
+        <v>1.75</v>
+      </c>
+      <c r="K274" s="1">
+        <v>0.2928</v>
+      </c>
+      <c r="L274" s="1">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>58</v>
       </c>
@@ -40546,8 +43860,20 @@
       <c r="D275" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>55</v>
+      </c>
+      <c r="J275">
+        <v>1.75</v>
+      </c>
+      <c r="K275" s="1">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="L275" s="1">
+        <v>3.16E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>59</v>
       </c>
@@ -40560,8 +43886,20 @@
       <c r="D276" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>56</v>
+      </c>
+      <c r="J276">
+        <v>1.75</v>
+      </c>
+      <c r="K276" s="1">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="L276" s="1">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>60</v>
       </c>
@@ -40574,8 +43912,20 @@
       <c r="D277" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>57</v>
+      </c>
+      <c r="J277">
+        <v>1.75</v>
+      </c>
+      <c r="K277" s="1">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="L277" s="1">
+        <v>3.1099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>13</v>
       </c>
@@ -40588,8 +43938,20 @@
       <c r="D278" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>58</v>
+      </c>
+      <c r="J278">
+        <v>1.75</v>
+      </c>
+      <c r="K278" s="1">
+        <v>0.30370000000000003</v>
+      </c>
+      <c r="L278" s="1">
+        <v>3.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14</v>
       </c>
@@ -40602,8 +43964,20 @@
       <c r="D279" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>59</v>
+      </c>
+      <c r="J279">
+        <v>1.75</v>
+      </c>
+      <c r="K279" s="1">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="L279" s="1">
+        <v>3.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>21</v>
       </c>
@@ -40616,8 +43990,20 @@
       <c r="D280" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <v>60</v>
+      </c>
+      <c r="J280">
+        <v>1.75</v>
+      </c>
+      <c r="K280" s="1">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="L280" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>22</v>
       </c>
@@ -40630,8 +44016,20 @@
       <c r="D281" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <v>5</v>
+      </c>
+      <c r="J281">
+        <v>2</v>
+      </c>
+      <c r="K281" s="1">
+        <v>1.9618</v>
+      </c>
+      <c r="L281" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>35</v>
       </c>
@@ -40644,8 +44042,20 @@
       <c r="D282" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>6</v>
+      </c>
+      <c r="J282">
+        <v>2</v>
+      </c>
+      <c r="K282" s="1">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="L282" s="1">
+        <v>2.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>41</v>
       </c>
@@ -40658,8 +44068,20 @@
       <c r="D283" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <v>7</v>
+      </c>
+      <c r="J283">
+        <v>2</v>
+      </c>
+      <c r="K283" s="1">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="L283" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>42</v>
       </c>
@@ -40672,8 +44094,20 @@
       <c r="D284" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <v>8</v>
+      </c>
+      <c r="J284">
+        <v>2</v>
+      </c>
+      <c r="K284" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L284" s="1">
+        <v>2.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>43</v>
       </c>
@@ -40686,8 +44120,20 @@
       <c r="D285" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <v>9</v>
+      </c>
+      <c r="J285">
+        <v>2</v>
+      </c>
+      <c r="K285" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="L285" s="1">
+        <v>2.5699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>44</v>
       </c>
@@ -40700,8 +44146,20 @@
       <c r="D286" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>10</v>
+      </c>
+      <c r="J286">
+        <v>2</v>
+      </c>
+      <c r="K286" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L286" s="1">
+        <v>2.7200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>11</v>
       </c>
@@ -40714,8 +44172,20 @@
       <c r="D287" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>11</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287" s="1">
+        <v>0.1002</v>
+      </c>
+      <c r="L287" s="1">
+        <v>2.7499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5</v>
       </c>
@@ -40728,8 +44198,20 @@
       <c r="D288" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>12</v>
+      </c>
+      <c r="J288">
+        <v>2</v>
+      </c>
+      <c r="K288" s="1">
+        <v>0.1076</v>
+      </c>
+      <c r="L288" s="1">
+        <v>2.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>6</v>
       </c>
@@ -40742,8 +44224,20 @@
       <c r="D289" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>13</v>
+      </c>
+      <c r="J289">
+        <v>2</v>
+      </c>
+      <c r="K289" s="1">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L289" s="1">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>9</v>
       </c>
@@ -40756,8 +44250,20 @@
       <c r="D290" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I290">
+        <v>14</v>
+      </c>
+      <c r="J290">
+        <v>2</v>
+      </c>
+      <c r="K290" s="1">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="L290" s="1">
+        <v>2.96E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>7</v>
       </c>
@@ -40770,8 +44276,20 @@
       <c r="D291" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>15</v>
+      </c>
+      <c r="J291">
+        <v>2</v>
+      </c>
+      <c r="K291" s="1">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="L291" s="1">
+        <v>3.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>17</v>
       </c>
@@ -40784,8 +44302,20 @@
       <c r="D292" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>16</v>
+      </c>
+      <c r="J292">
+        <v>2</v>
+      </c>
+      <c r="K292" s="1">
+        <v>0.13239999999999999</v>
+      </c>
+      <c r="L292" s="1">
+        <v>3.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>18</v>
       </c>
@@ -40798,8 +44328,20 @@
       <c r="D293" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>17</v>
+      </c>
+      <c r="J293">
+        <v>2</v>
+      </c>
+      <c r="K293" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L293" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>6</v>
       </c>
@@ -40812,8 +44354,20 @@
       <c r="D294" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>18</v>
+      </c>
+      <c r="J294">
+        <v>2</v>
+      </c>
+      <c r="K294" s="1">
+        <v>0.1439</v>
+      </c>
+      <c r="L294" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>8</v>
       </c>
@@ -40826,8 +44380,20 @@
       <c r="D295" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>19</v>
+      </c>
+      <c r="J295">
+        <v>2</v>
+      </c>
+      <c r="K295" s="1">
+        <v>0.14649999999999999</v>
+      </c>
+      <c r="L295" s="1">
+        <v>3.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>13</v>
       </c>
@@ -40840,8 +44406,20 @@
       <c r="D296" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>20</v>
+      </c>
+      <c r="J296">
+        <v>2</v>
+      </c>
+      <c r="K296" s="1">
+        <v>0.1522</v>
+      </c>
+      <c r="L296" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>14</v>
       </c>
@@ -40854,8 +44432,20 @@
       <c r="D297" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>21</v>
+      </c>
+      <c r="J297">
+        <v>2</v>
+      </c>
+      <c r="K297" s="1">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="L297" s="1">
+        <v>3.14E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>18</v>
       </c>
@@ -40868,8 +44458,20 @@
       <c r="D298" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>22</v>
+      </c>
+      <c r="J298">
+        <v>2</v>
+      </c>
+      <c r="K298" s="1">
+        <v>0.1719</v>
+      </c>
+      <c r="L298" s="1">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>19</v>
       </c>
@@ -40882,8 +44484,20 @@
       <c r="D299" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>23</v>
+      </c>
+      <c r="J299">
+        <v>2</v>
+      </c>
+      <c r="K299" s="1">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="L299" s="1">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>20</v>
       </c>
@@ -40896,8 +44510,20 @@
       <c r="D300" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>24</v>
+      </c>
+      <c r="J300">
+        <v>2</v>
+      </c>
+      <c r="K300" s="1">
+        <v>0.1789</v>
+      </c>
+      <c r="L300" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>54</v>
       </c>
@@ -40910,8 +44536,20 @@
       <c r="D301" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>25</v>
+      </c>
+      <c r="J301">
+        <v>2</v>
+      </c>
+      <c r="K301" s="1">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="L301" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>7</v>
       </c>
@@ -40924,8 +44562,20 @@
       <c r="D302" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>26</v>
+      </c>
+      <c r="J302">
+        <v>2</v>
+      </c>
+      <c r="K302" s="1">
+        <v>0.20449999999999999</v>
+      </c>
+      <c r="L302" s="1">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>15</v>
       </c>
@@ -40938,8 +44588,20 @@
       <c r="D303" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>27</v>
+      </c>
+      <c r="J303">
+        <v>2</v>
+      </c>
+      <c r="K303" s="1">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="L303" s="1">
+        <v>3.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>45</v>
       </c>
@@ -40952,8 +44614,20 @@
       <c r="D304" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>28</v>
+      </c>
+      <c r="J304">
+        <v>2</v>
+      </c>
+      <c r="K304" s="1">
+        <v>0.2069</v>
+      </c>
+      <c r="L304" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>47</v>
       </c>
@@ -40966,8 +44640,20 @@
       <c r="D305" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <v>29</v>
+      </c>
+      <c r="J305">
+        <v>2</v>
+      </c>
+      <c r="K305" s="1">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="L305" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>48</v>
       </c>
@@ -40980,8 +44666,20 @@
       <c r="D306" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <v>30</v>
+      </c>
+      <c r="J306">
+        <v>2</v>
+      </c>
+      <c r="K306" s="1">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="L306" s="1">
+        <v>3.15E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>49</v>
       </c>
@@ -40994,8 +44692,20 @@
       <c r="D307" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <v>31</v>
+      </c>
+      <c r="J307">
+        <v>2</v>
+      </c>
+      <c r="K307" s="1">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="L307" s="1">
+        <v>3.16E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>50</v>
       </c>
@@ -41008,8 +44718,20 @@
       <c r="D308" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>32</v>
+      </c>
+      <c r="J308">
+        <v>2</v>
+      </c>
+      <c r="K308" s="1">
+        <v>0.2266</v>
+      </c>
+      <c r="L308" s="1">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>52</v>
       </c>
@@ -41022,8 +44744,20 @@
       <c r="D309" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <v>33</v>
+      </c>
+      <c r="J309">
+        <v>2</v>
+      </c>
+      <c r="K309" s="1">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="L309" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>54</v>
       </c>
@@ -41036,8 +44770,20 @@
       <c r="D310" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>34</v>
+      </c>
+      <c r="J310">
+        <v>2</v>
+      </c>
+      <c r="K310" s="1">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="L310" s="1">
+        <v>3.2299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>55</v>
       </c>
@@ -41050,8 +44796,20 @@
       <c r="D311" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>35</v>
+      </c>
+      <c r="J311">
+        <v>2</v>
+      </c>
+      <c r="K311" s="1">
+        <v>0.2402</v>
+      </c>
+      <c r="L311" s="1">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>56</v>
       </c>
@@ -41064,8 +44822,20 @@
       <c r="D312" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>36</v>
+      </c>
+      <c r="J312">
+        <v>2</v>
+      </c>
+      <c r="K312" s="1">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="L312" s="1">
+        <v>3.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>5</v>
       </c>
@@ -41078,8 +44848,20 @@
       <c r="D313" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>37</v>
+      </c>
+      <c r="J313">
+        <v>2</v>
+      </c>
+      <c r="K313" s="1">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="L313" s="1">
+        <v>3.1800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>11</v>
       </c>
@@ -41092,8 +44874,20 @@
       <c r="D314" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>38</v>
+      </c>
+      <c r="J314">
+        <v>2</v>
+      </c>
+      <c r="K314" s="1">
+        <v>0.25829999999999997</v>
+      </c>
+      <c r="L314" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>9</v>
       </c>
@@ -41106,8 +44900,20 @@
       <c r="D315" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>39</v>
+      </c>
+      <c r="J315">
+        <v>2</v>
+      </c>
+      <c r="K315" s="1">
+        <v>0.2641</v>
+      </c>
+      <c r="L315" s="1">
+        <v>3.1900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>10</v>
       </c>
@@ -41120,8 +44926,20 @@
       <c r="D316" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>40</v>
+      </c>
+      <c r="J316">
+        <v>2</v>
+      </c>
+      <c r="K316" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="L316" s="1">
+        <v>3.16E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5</v>
       </c>
@@ -41134,8 +44952,20 @@
       <c r="D317" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>41</v>
+      </c>
+      <c r="J317">
+        <v>2</v>
+      </c>
+      <c r="K317" s="1">
+        <v>0.26679999999999998</v>
+      </c>
+      <c r="L317" s="1">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>7</v>
       </c>
@@ -41148,8 +44978,20 @@
       <c r="D318" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>42</v>
+      </c>
+      <c r="J318">
+        <v>2</v>
+      </c>
+      <c r="K318" s="1">
+        <v>0.26779999999999998</v>
+      </c>
+      <c r="L318" s="1">
+        <v>3.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>21</v>
       </c>
@@ -41162,8 +45004,20 @@
       <c r="D319" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>43</v>
+      </c>
+      <c r="J319">
+        <v>2</v>
+      </c>
+      <c r="K319" s="1">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="L319" s="1">
+        <v>3.0200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>22</v>
       </c>
@@ -41176,8 +45030,20 @@
       <c r="D320" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>44</v>
+      </c>
+      <c r="J320">
+        <v>2</v>
+      </c>
+      <c r="K320" s="1">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="L320" s="1">
+        <v>3.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6</v>
       </c>
@@ -41190,8 +45056,20 @@
       <c r="D321" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>45</v>
+      </c>
+      <c r="J321">
+        <v>2</v>
+      </c>
+      <c r="K321" s="1">
+        <v>0.2888</v>
+      </c>
+      <c r="L321" s="1">
+        <v>3.13E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>16</v>
       </c>
@@ -41204,8 +45082,20 @@
       <c r="D322" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>46</v>
+      </c>
+      <c r="J322">
+        <v>2</v>
+      </c>
+      <c r="K322" s="1">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="L322" s="1">
+        <v>3.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>17</v>
       </c>
@@ -41218,8 +45108,20 @@
       <c r="D323" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <v>47</v>
+      </c>
+      <c r="J323">
+        <v>2</v>
+      </c>
+      <c r="K323" s="1">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="L323" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>18</v>
       </c>
@@ -41232,8 +45134,20 @@
       <c r="D324" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>48</v>
+      </c>
+      <c r="J324">
+        <v>2</v>
+      </c>
+      <c r="K324" s="1">
+        <v>0.2923</v>
+      </c>
+      <c r="L324" s="1">
+        <v>3.0100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>19</v>
       </c>
@@ -41246,8 +45160,20 @@
       <c r="D325" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <v>49</v>
+      </c>
+      <c r="J325">
+        <v>2</v>
+      </c>
+      <c r="K325" s="1">
+        <v>0.29360000000000003</v>
+      </c>
+      <c r="L325" s="1">
+        <v>2.98E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>46</v>
       </c>
@@ -41260,8 +45186,20 @@
       <c r="D326" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>50</v>
+      </c>
+      <c r="J326">
+        <v>2</v>
+      </c>
+      <c r="K326" s="1">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="L326" s="1">
+        <v>2.9099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>51</v>
       </c>
@@ -41274,8 +45212,20 @@
       <c r="D327" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>51</v>
+      </c>
+      <c r="J327">
+        <v>2</v>
+      </c>
+      <c r="K327" s="1">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="L327" s="1">
+        <v>2.8900000000000002E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>53</v>
       </c>
@@ -41288,8 +45238,20 @@
       <c r="D328" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>52</v>
+      </c>
+      <c r="J328">
+        <v>2</v>
+      </c>
+      <c r="K328" s="1">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="L328" s="1">
+        <v>2.8800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>57</v>
       </c>
@@ -41302,8 +45264,20 @@
       <c r="D329" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>53</v>
+      </c>
+      <c r="J329">
+        <v>2</v>
+      </c>
+      <c r="K329" s="1">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="L329" s="1">
+        <v>2.9099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>58</v>
       </c>
@@ -41316,8 +45290,20 @@
       <c r="D330" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>54</v>
+      </c>
+      <c r="J330">
+        <v>2</v>
+      </c>
+      <c r="K330" s="1">
+        <v>0.3266</v>
+      </c>
+      <c r="L330" s="1">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>59</v>
       </c>
@@ -41330,8 +45316,20 @@
       <c r="D331" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>55</v>
+      </c>
+      <c r="J331">
+        <v>2</v>
+      </c>
+      <c r="K331" s="1">
+        <v>0.3332</v>
+      </c>
+      <c r="L331" s="1">
+        <v>2.96E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>60</v>
       </c>
@@ -41344,8 +45342,20 @@
       <c r="D332" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>56</v>
+      </c>
+      <c r="J332">
+        <v>2</v>
+      </c>
+      <c r="K332" s="1">
+        <v>0.3281</v>
+      </c>
+      <c r="L332" s="1">
+        <v>2.8500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>5</v>
       </c>
@@ -41358,8 +45368,20 @@
       <c r="D333" s="3">
         <v>1.7000000000000001E-4</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>57</v>
+      </c>
+      <c r="J333">
+        <v>2</v>
+      </c>
+      <c r="K333" s="1">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="L333" s="1">
+        <v>2.97E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>10</v>
       </c>
@@ -41372,8 +45394,20 @@
       <c r="D334" s="3">
         <v>1.7000000000000001E-4</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>58</v>
+      </c>
+      <c r="J334">
+        <v>2</v>
+      </c>
+      <c r="K334" s="1">
+        <v>0.3498</v>
+      </c>
+      <c r="L334" s="1">
+        <v>2.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5</v>
       </c>
@@ -41386,8 +45420,20 @@
       <c r="D335" s="3">
         <v>1.7000000000000001E-4</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>59</v>
+      </c>
+      <c r="J335">
+        <v>2</v>
+      </c>
+      <c r="K335" s="1">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="L335" s="1">
+        <v>2.9299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>5</v>
       </c>
@@ -41399,6 +45445,18 @@
       </c>
       <c r="D336" s="3">
         <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="I336">
+        <v>60</v>
+      </c>
+      <c r="J336">
+        <v>2</v>
+      </c>
+      <c r="K336" s="1">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="L336" s="1">
+        <v>2.8900000000000002E-3</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
